--- a/Дисциплины/Модели и методы интеллектуального анализа данных/Корреляционный анализ/Практика корреляционный анализ/Расчёты.xlsx
+++ b/Дисциплины/Модели и методы интеллектуального анализа данных/Корреляционный анализ/Практика корреляционный анализ/Расчёты.xlsx
@@ -17,10 +17,6 @@
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -138,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -162,6 +158,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1387,6 +1386,576 @@
         <a:xfrm>
           <a:off x="1514475" y="5362575"/>
           <a:ext cx="2305050" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="6524625"/>
+          <a:ext cx="123825" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3943350" y="6524625"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4552950" y="6524625"/>
+          <a:ext cx="123825" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5162550" y="6524625"/>
+          <a:ext cx="152400" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5772150" y="6524625"/>
+          <a:ext cx="590550" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5772150" y="8620125"/>
+          <a:ext cx="771525" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Рисунок 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6381750" y="8620125"/>
+          <a:ext cx="838200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243051</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>32845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484373</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>126825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Рисунок 63"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="3290" b="-21"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3297620" y="9459311"/>
+          <a:ext cx="1745615" cy="474980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610913</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6391603" y="6522983"/>
+          <a:ext cx="658539" cy="219732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1695,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F14:L29"/>
+  <dimension ref="F14:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +2292,7 @@
         <v>66</v>
       </c>
       <c r="G16" s="4">
-        <f>F16-хср</f>
+        <f t="shared" ref="G16:G23" si="0">F16-хср</f>
         <v>-8.5</v>
       </c>
       <c r="H16" s="4">
@@ -1734,7 +2303,7 @@
         <v>70</v>
       </c>
       <c r="J16" s="4">
-        <f>I16-уср</f>
+        <f t="shared" ref="J16:J23" si="1">I16-уср</f>
         <v>-7.875</v>
       </c>
       <c r="K16" s="4">
@@ -1751,26 +2320,26 @@
         <v>80</v>
       </c>
       <c r="G17" s="4">
-        <f>F17-хср</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" ref="H17:H23" si="0">POWER(G17,2)</f>
+        <f t="shared" ref="H17:H23" si="2">POWER(G17,2)</f>
         <v>30.25</v>
       </c>
       <c r="I17" s="4">
         <v>85</v>
       </c>
       <c r="J17" s="4">
-        <f>I17-уср</f>
+        <f t="shared" si="1"/>
         <v>7.125</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" ref="K17:K23" si="1">POWER(J17,2)</f>
+        <f t="shared" ref="K17:K23" si="3">POWER(J17,2)</f>
         <v>50.765625</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" ref="L17:L23" si="2">G17*J17</f>
+        <f t="shared" ref="L17:L23" si="4">G17*J17</f>
         <v>39.1875</v>
       </c>
     </row>
@@ -1779,26 +2348,26 @@
         <v>73</v>
       </c>
       <c r="G18" s="4">
-        <f>F18-хср</f>
+        <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="I18" s="4">
         <v>78</v>
       </c>
       <c r="J18" s="4">
-        <f>I18-уср</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5625E-2</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.1875</v>
       </c>
     </row>
@@ -1807,26 +2376,26 @@
         <v>74</v>
       </c>
       <c r="G19" s="4">
-        <f>F19-хср</f>
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="I19" s="4">
         <v>78</v>
       </c>
       <c r="J19" s="4">
-        <f>I19-уср</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5625E-2</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.25E-2</v>
       </c>
     </row>
@@ -1835,26 +2404,26 @@
         <v>85</v>
       </c>
       <c r="G20" s="4">
-        <f>F20-хср</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110.25</v>
       </c>
       <c r="I20" s="4">
         <v>90</v>
       </c>
       <c r="J20" s="4">
-        <f>I20-уср</f>
+        <f t="shared" si="1"/>
         <v>12.125</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>147.015625</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>127.3125</v>
       </c>
     </row>
@@ -1863,26 +2432,26 @@
         <v>79</v>
       </c>
       <c r="G21" s="4">
-        <f>F21-хср</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
       <c r="I21" s="4">
         <v>84</v>
       </c>
       <c r="J21" s="4">
-        <f>I21-уср</f>
+        <f t="shared" si="1"/>
         <v>6.125</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37.515625</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27.5625</v>
       </c>
     </row>
@@ -1891,26 +2460,26 @@
         <v>68</v>
       </c>
       <c r="G22" s="4">
-        <f>F22-хср</f>
+        <f t="shared" si="0"/>
         <v>-6.5</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.25</v>
       </c>
       <c r="I22" s="4">
         <v>66</v>
       </c>
       <c r="J22" s="4">
-        <f>I22-уср</f>
+        <f t="shared" si="1"/>
         <v>-11.875</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>141.015625</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>77.1875</v>
       </c>
     </row>
@@ -1919,26 +2488,26 @@
         <v>71</v>
       </c>
       <c r="G23" s="4">
-        <f>F23-хср</f>
+        <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.25</v>
       </c>
       <c r="I23" s="4">
         <v>72</v>
       </c>
       <c r="J23" s="4">
-        <f>I23-уср</f>
+        <f t="shared" si="1"/>
         <v>-5.875</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.515625</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.5625</v>
       </c>
     </row>
@@ -1986,6 +2555,209 @@
       <c r="G29" s="8">
         <f>L25/SQRT(H25*K25)</f>
         <v>0.96809278606411497</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+      <c r="G35" s="4">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J35" s="4">
+        <f>G35-I35</f>
+        <v>3.5</v>
+      </c>
+      <c r="K35" s="4">
+        <f>POWER(G35-I35,2)</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+      <c r="G36" s="4">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" ref="J36:J43" si="5">G36-I36</f>
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="4">
+        <f>POWER(G36-I36,2)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="1"/>
+      <c r="G37" s="4">
+        <v>8</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>8</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" ref="K37:K43" si="6">POWER(G37-I37,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="1"/>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
+        <v>8</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="1"/>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.5</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="1"/>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.5</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="1"/>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="6"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+      <c r="G42" s="4">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <v>8</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+      <c r="G43" s="4">
+        <v>6</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="6"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="1"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="1"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f>SUM(J35:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K35:K43)</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>(6*K46)/(9*80)</f>
+        <v>0.6958333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Дисциплины/Модели и методы интеллектуального анализа данных/Корреляционный анализ/Практика корреляционный анализ/Расчёты.xlsx
+++ b/Дисциплины/Модели и методы интеллектуального анализа данных/Корреляционный анализ/Практика корреляционный анализ/Расчёты.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\SKU_2023\Дисциплины\Модели и методы интеллектуального анализа данных\Корреляционный анализ\Практика корреляционный анализ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4630D97-428C-4A75-BFCB-146DDD2A765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,13 +21,24 @@
     <definedName name="уср">Лист1!$I$25</definedName>
     <definedName name="хср">Лист1!$F$25</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +78,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -130,11 +154,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -163,6 +198,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -172,6 +210,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,7 +235,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -259,7 +306,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -324,7 +377,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -389,7 +448,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -454,7 +519,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -519,7 +590,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -584,7 +661,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -649,7 +732,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -714,7 +803,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -779,7 +874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -844,7 +945,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -909,7 +1016,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12"/>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -974,7 +1087,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13"/>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1039,7 +1158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14"/>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1104,7 +1229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15"/>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1169,7 +1300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1234,7 +1371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1299,7 +1442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18"/>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1364,7 +1513,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Рисунок 4" descr="Описание: https://studbooks.net/imag_/43/228219/image009.png"/>
+        <xdr:cNvPr id="38" name="Рисунок 4" descr="Описание: https://studbooks.net/imag_/43/228219/image009.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1419,7 +1574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Рисунок 36"/>
+        <xdr:cNvPr id="37" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1484,7 +1645,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Рисунок 38"/>
+        <xdr:cNvPr id="39" name="Рисунок 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1549,7 +1716,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Рисунок 39"/>
+        <xdr:cNvPr id="40" name="Рисунок 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1614,7 +1787,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Рисунок 40"/>
+        <xdr:cNvPr id="41" name="Рисунок 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1679,7 +1858,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Рисунок 41"/>
+        <xdr:cNvPr id="42" name="Рисунок 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1733,18 +1918,24 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Рисунок 43"/>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1798,18 +1989,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Рисунок 44"/>
+        <xdr:cNvPr id="45" name="Рисунок 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1863,18 +2060,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>243051</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>32845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>484373</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>126825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Рисунок 63"/>
+        <xdr:cNvPr id="64" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1924,7 +2127,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Рисунок 29"/>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2020,7 +2229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2053,9 +2262,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2088,6 +2314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2263,11 +2506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F14:L49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F14:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,88 +2811,88 @@
     </row>
     <row r="35" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F35" s="1"/>
-      <c r="G35" s="4">
-        <v>9</v>
+      <c r="G35" s="10">
+        <v>2.5</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="4">
-        <v>5.5</v>
+      <c r="I35" s="10">
+        <v>2</v>
       </c>
       <c r="J35" s="4">
         <f>G35-I35</f>
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="K35" s="4">
         <f>POWER(G35-I35,2)</f>
-        <v>12.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="1"/>
-      <c r="G36" s="4">
-        <v>3</v>
+      <c r="G36" s="10">
+        <v>1</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="4">
-        <v>2.5</v>
+      <c r="I36" s="10">
+        <v>3.5</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" ref="J36:J43" si="5">G36-I36</f>
-        <v>0.5</v>
+        <f t="shared" ref="J36:J44" si="5">G36-I36</f>
+        <v>-2.5</v>
       </c>
       <c r="K36" s="4">
         <f>POWER(G36-I36,2)</f>
-        <v>0.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="37" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F37" s="1"/>
-      <c r="G37" s="4">
-        <v>8</v>
+      <c r="G37" s="10">
+        <v>9</v>
       </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <v>8</v>
+      <c r="I37" s="10">
+        <v>9</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" ref="K37:K43" si="6">POWER(G37-I37,2)</f>
+        <f t="shared" ref="K37:K44" si="6">POWER(G37-I37,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="1"/>
-      <c r="G38" s="4">
-        <v>1</v>
+      <c r="G38" s="10">
+        <v>6</v>
       </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="4">
-        <v>8</v>
+      <c r="I38" s="10">
+        <v>7</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="5"/>
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="6"/>
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F39" s="1"/>
-      <c r="G39" s="4">
-        <v>4</v>
+      <c r="G39" s="10">
+        <v>2.5</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="4">
-        <v>5.5</v>
+      <c r="I39" s="10">
+        <v>1</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="5"/>
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="6"/>
@@ -2658,106 +2901,124 @@
     </row>
     <row r="40" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F40" s="1"/>
-      <c r="G40" s="4">
-        <v>2</v>
+      <c r="G40" s="10">
+        <v>10</v>
       </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="4">
-        <v>2.5</v>
+      <c r="I40" s="10">
+        <v>10</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="5"/>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="6"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F41" s="1"/>
-      <c r="G41" s="4">
+      <c r="G41" s="10">
         <v>5</v>
       </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="4">
-        <v>2.5</v>
+      <c r="I41" s="10">
+        <v>5</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="6"/>
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F42" s="1"/>
-      <c r="G42" s="4">
+      <c r="G42" s="10">
         <v>7</v>
       </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="4">
-        <v>8</v>
+      <c r="I42" s="10">
+        <v>7</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F43" s="1"/>
-      <c r="G43" s="4">
-        <v>6</v>
+      <c r="G43" s="10">
+        <v>4</v>
       </c>
       <c r="H43" s="4"/>
-      <c r="I43" s="4">
-        <v>2.5</v>
+      <c r="I43" s="10">
+        <v>3.5</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="6"/>
-        <v>12.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F44" s="1"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="10">
+        <v>8</v>
+      </c>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="I44" s="10">
+        <v>7</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F45" s="1"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="J46">
-        <f>SUM(J35:J43)</f>
+    <row r="46" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="1"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f>SUM(J35:J44)</f>
         <v>0</v>
       </c>
-      <c r="K46">
-        <f>SUM(K35:K43)</f>
-        <v>83.5</v>
+      <c r="K47">
+        <f>SUM(K35:K44)</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49">
-        <f>(6*K46)/(9*80)</f>
-        <v>0.6958333333333333</v>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f>1 - ((6*K47)/(10*99))</f>
+        <v>0.93333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -2768,7 +3029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2780,7 +3041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
